--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/33_Gaziantep_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/33_Gaziantep_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982F63F2-B2A7-4C19-9471-67CD4F6D92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D567D9D-FB35-419E-B5A7-1F19672AF26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{F24F4470-4E7D-4A1B-9A31-9FA76EA3EB9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{CECE1B2C-4CE3-4101-8573-3FCFB73956EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7BF21B42-01EE-42A8-A445-E2198315B4DE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{37EA93F2-F117-4D4B-956D-A5130AECE00B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{416FD0D5-8192-4FA3-8CD5-00346ABFDED3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CECD4B01-FAC0-41D0-98C6-05BA32F42C51}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A9F2AD00-137F-45D8-998E-1F806D275BAC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D7670B68-EF71-41B9-9E1A-1AB5C444572B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{812B4107-BBA8-480A-AC28-67DDD6C5EA7B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CE603871-6034-407E-88A8-11BFABBDB578}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9D5AA6EC-D7FE-4C6B-AE4E-F9251BBE8B28}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4C081ECF-B3F8-482F-84AE-F269BDA9D00A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4311FE6D-1230-4197-8A82-F1A8AB98FDC9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{764D09CD-C5AD-44FB-B1D2-88D18B03D5C2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F5D16BD2-0F77-4AA6-B844-B45A3E7D7148}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{EFB7B1E8-8186-4308-A358-050CBB73024D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558C608A-96B5-451F-9485-15F70CB2FC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E38F2-E595-44E1-8A93-F6965793C9B2}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF980B00-C635-470E-AEDD-DE9F6728B85F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9348937-5440-45EC-9E3F-96B7580A4F49}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0BA1ACA8-B381-42FF-85E3-FAE918E42705}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77958C7F-1A40-43AA-AC67-71EAED613217}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8A745856-6F91-4128-B661-5B0223D88BB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6FF9CD3-C299-4193-BF8D-4EA0D6B1DCBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CEAB579-5700-4A23-AEAD-F53D3D64B94B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DA362FC-984A-4333-A9B6-18029DA81314}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F74E0A70-40C3-456B-9A2C-FE4AB09AAA10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EC2EB88-4AC6-4AF8-A9F9-799B0305F880}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BC8E4D7-DCE4-4247-9B34-D7911794A8AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8964DF92-10F4-4FAB-AC5D-E832A7A874FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4D2228E-2673-4254-AA05-F15A81F6EEDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AE8D2A4-D89E-42D1-AFF2-76B073604E1B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D941702E-F63B-4FE3-AC28-B2F58FCDAE07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0920E24-4B01-4563-BB68-05A2BBA56CB4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8D99AAE7-0402-4B5C-A530-F9B4010C17E5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A29BC4F2-13BF-4653-B106-EB8635A4018C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD47A0FF-EC66-4CB3-B037-3CDB48A50DE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61868EB1-01C3-4D28-9B9E-D97579DE821F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{606BA07B-F424-4E52-92DC-34AF441604FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D13F16E8-3D36-420E-B262-BE00EE613575}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EDFDCEC-C290-4D8C-BAB4-F2E5E47E8E05}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F738D992-D6B2-42DF-9ECE-4EA792415CA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF16E5D-0FFB-4596-9B9C-A94C89A399F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF26834-298E-451E-A9B3-2122ABD9A443}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3865,18 +3865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A570D09B-5902-447A-B351-C4480DC82E00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFDCAA5E-E705-4F3F-B7EA-F7BFEA8D978A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D580E341-091E-45EA-8413-7B614CCA8B3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C95A883C-A90F-4049-94D3-A685CAD4D48E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C4B1D360-6E0A-4786-BCBC-B9AACDA909CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08882E55-0AFC-4F32-8EB4-3E42A8A8BEB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D08F088E-17DD-44A9-8C69-56482527076A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15148199-9D33-4C84-B767-EE48D4FE3D16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1846AF7-9F5A-433B-897D-41893B73E5F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E362A26-CDA8-477B-94D3-B125D735AE63}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8BE59FB-3EAE-49C7-8D0B-2864C49B093B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50992DD4-6F71-4E0A-A8FF-0F3BE0A5AD21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{443B6806-D494-4BCC-875B-219D5FBB7DBB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBABE6F0-8DD5-4E47-8719-323C9AD5DD88}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{746E1C1C-9A28-40B5-B789-B63BD9ECFE1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70771973-6F05-40ED-9673-07CA2B27FED2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{574171B5-C2EF-4A52-93D1-252249D2794C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B49A4BB-3D62-49A5-A113-EF81FFB145A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2658B6D0-DD69-4AB4-ADBA-5E3ACE1C1CF4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{392A508D-3B11-43BF-8AB1-5DAD51B90D77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B7C966C-AF65-4DBA-8054-D1A0A0B1877C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7773D1EA-7F37-4054-A02C-425B5FA95222}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4ECB340-6E17-46B4-AA11-5077CEB93FE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1420567-46E7-44C8-95DA-E4C7E9B9FF18}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9D892F-E86D-4B71-8D6D-415F9A3AF772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4156395C-D6EF-45EE-8EC7-42BE55F0A8A4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5136,18 +5136,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25F281E3-F5D0-4D41-86FC-3583E35DFF31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F58B6A2F-A874-48BD-878A-D6AED826F5CD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EF8CBC5-D9DD-4070-BB91-A43562E09231}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49069A90-E061-421C-B6DA-ED1404DA5EB7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6B64FFEA-EC16-49B0-8324-CB1470A917A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85CD51CA-EFC3-4DD9-8D7A-2D12B5AEE5D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E41BAE45-5186-4E0D-B05F-B6BA95B17862}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B0F7D85-50A5-4F8F-87DD-303772DA700B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DEF0DDBA-EBFB-4ADD-A59C-0386A58A2ED5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1F4F6BA-9705-4F46-9C78-9F3ED576E633}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C45BD67-DCB1-41FC-A20E-ADBF577DA907}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75DADB7A-8FC2-467F-A4F4-141F6CCC0AF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{303F6191-4BB4-4D07-A041-1D27E93E867A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02F9B284-3782-4CE9-B7F2-DD5A970AC748}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C779375F-3B4E-4E54-A551-A2851EDAE76A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32F4B5F7-2C6D-40A5-9C86-89183A4FE086}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8303445B-1B6F-4DDA-899F-93D03AB9A58A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F00A540B-7626-4CAB-9850-4593149E1D06}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E7C7E8B-7F1F-4DCA-B2B5-C556E10986BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EB1AC13-D837-49F9-9405-071464A7415F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E006916B-8F6C-4143-BE24-45F598A47640}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11E96C5F-F793-4F8A-9C0F-3A6645B4D007}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{798190B9-DEE2-4DD2-9A2A-FF006F770469}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FACB07E-8260-40C7-945C-EAECD7339DEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5160,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24764497-5D11-4690-8C94-508C12A1EAF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8124B8-79D3-43F8-994B-118B59E7E472}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6408,18 +6408,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{453BA385-C797-4C24-80AF-4427AC2CF3C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74F917CD-538F-4DCB-A198-B0026910BD3D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4453598-1990-4A1F-8769-174370D8DD8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BDD63F9-E549-49FE-BFB8-CA9CB350D4A6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D0BC7774-FFA1-4D3F-A50C-83EFFE2C215C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{359EB596-BBE6-44A4-81AD-CD6CCBF9849E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4DA940C-052F-4520-BDA2-F39C138515FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39F92EA6-AE3B-4DB0-811A-91279FB81665}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D11C1137-4008-4C46-A562-4AB8A4DF9857}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87AE6767-9966-44DB-89F8-D51FD23A21E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5117E23-44A4-431E-866C-070647EEE261}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD1859AD-4CF7-4129-B4F4-D96F42595526}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DC708BA-4AF5-45B5-A493-B0A52302CBC0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56F8D10A-81D2-4ABA-B169-3E0E5C41F6C2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{73F3041E-CC2B-4210-BAD1-63769E8E400C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9FFEE972-5839-42C9-9318-3AB9DD588D75}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{61271ADF-8752-4097-A87B-17EDA937B383}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3592B1AD-76EE-42A2-879A-057E49003C33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11FD10C0-E8F0-4B1D-A6E3-5180657F8C40}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E4AC74F-B387-49EA-A280-ADE50A7848BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8406BC7F-D302-45E8-935D-309EF0111FE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72AE8302-2B2C-43B3-A57C-D25FC0956C2F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE41CCEF-FD48-440A-A5FB-5F8A3C77B85A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BADA7458-B571-4767-BB9E-0A812DDA4C98}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6432,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34A1D15-FC14-400A-9FD8-AD5900D76C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8953FD-1E6D-4254-8707-9A91DFC8E418}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7695,18 +7695,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23FE24AA-5E85-47AD-BA44-C2EC968C10C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC63423A-7FC9-4787-95BD-EFA2A56F01BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D0EEAB38-A62E-4FB4-B96A-B0A0C06921BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C26B68E5-F44A-42F7-8C39-1A1A1943C683}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{33146956-6AE0-499B-B73A-2278D7B8DA17}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D7D4E30-C99A-4568-9CA2-537F0445F2E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84B23898-1718-4DA0-BE50-6CA1CF300F03}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{544D406C-8901-4C84-9F14-14FDF01272CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AB64795-A280-4705-970A-6F5A03023668}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB6D3849-076F-4C38-988B-702AA017C81C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{628660D6-53AF-41B8-8FE6-26C19029B489}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4C71852-CE4D-428A-AB13-376BBB9703AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E2A0B36-E5FA-4964-89F9-2498833B1731}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8A2CD76-BD39-4235-837B-01749601D97C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{45AB4E8B-EBCF-4FB7-A207-B536B9E4EEB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03DDB4A8-84A1-4F4A-B47D-A31D6D8BA381}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{23AE9D76-FD5A-4678-8301-DC7318C00B26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED7F8F67-A20E-475E-9D06-56ADD941308E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26D82180-5082-4758-9239-054A9D33EDE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62F3548F-921C-4879-9980-F2468B914E08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{411BC64D-5F74-4988-A79A-5908BDD1CF39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{019DB870-15F2-4DAE-A0B3-2EAA921D969E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19FC00F8-143A-44C8-B493-EBF5A151AFFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F89E3A1D-7053-4106-9B0D-3C77F61778E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7719,7 +7719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0339F65-08C8-42AF-BDBA-C79005B1269D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A2ACD8-9BE3-45C5-990D-1129F7651022}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8982,18 +8982,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40B65713-46E1-43FE-94DE-B3EDC97D487C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C64728AE-B286-476A-9440-68FD4BF6C4F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ACED36C-2FEC-4550-BF8A-5F3ECB3ADACA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB0710B4-A297-4B0F-AA5C-0EC48DE3AEDC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DF97DE72-78E3-4FA0-BB37-30764C422BBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CABD4CF1-685F-4095-BAB4-9D8A2F86D3B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{269A9C92-0AC6-4747-86FD-4E7EA8A6A71E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD5756C1-548B-47AE-AD48-726D3E1B247E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFD392BB-8ECC-41AC-A8BF-AE4C6D569252}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2B4F0A1-7BDE-495E-BD92-7636AD019BBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE083C0F-2E3F-4DC5-8527-9E9E6B463B60}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DADA1CF-6E70-4C37-B908-1FA7DBF5C573}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85C1FDF8-239A-4A86-8E28-A6F23A32C00A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37B23420-6846-4B3B-BCBD-9EC244FD4881}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA28EF21-3E8E-42A3-B8EA-A18B77F16942}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C12CE0AC-A299-4B1E-A86E-0631FE7DCCA9}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C8284468-34B2-4044-A7BE-6566433B62D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50525BB0-1313-4CB0-92B4-A5CC0846F15D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2AD1E55-E407-4FEE-9CDA-9CFE7100C0A0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3D52E64-89D2-4F47-A221-BD430776662C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FE25802-A661-49A8-8D56-22DEABCA35B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1279315-F51A-4A22-8D3C-1A6F68CEBFFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0809EFE2-C849-4DCB-B456-D201C3D5A7A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{927287AD-1657-4EB8-9B79-A3B518C91F76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9006,7 +9006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59518D70-95C1-44BB-9DAA-60E9AA6EF232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329081E-BCFA-455F-917A-74525503EEC8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10269,18 +10269,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DA30A18-E1E6-4B00-92F5-5E863A189F91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EE7FC69-0D3B-409C-BB91-E11617EAF030}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88474002-4654-4E08-9755-4C09D63DD8D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2757C48-7BDE-4983-8D8D-54618BBDE1AC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9AC4F59D-2FF6-421F-8501-4BDDE8A247C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1DE745D-7FEB-4532-8CA1-E8B59C49F1F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E38270D-BBC3-45C7-945A-BAF6D4A832B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{798F1503-646F-4DB0-9B2C-087B994AD90A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1962DCC-310B-4792-9F98-E341B106ECC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66DBA453-E9C2-404D-87DA-0A6C4A7D7473}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE5A1907-AACB-4A51-8752-3578D505AD18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC096558-AF84-48A2-8BEB-DB6780031E76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4737AB75-3F6D-462B-924D-57A6905E4DD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCD3E627-9A4B-490F-A6E2-BF42CF8815E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D04A4D3-B9E6-44FA-854E-4E5B449BEBAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2389D28-CEC9-4CC5-B0E4-71118C046CD3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8ADB8400-1DA7-498E-909A-E1048CF55AE1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61F00837-0718-4D78-BBA8-DB843FD644AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD540D09-5C35-4FE3-A2DE-40BB9EDFAA24}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8784FD7-E197-4D84-B616-D8F53963F370}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F25DA7AE-4DD0-4510-9282-C751D250BA42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88822AC9-0F6F-4457-AAB8-97E8015312A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE909E9D-C9C5-4CDC-A5F3-286AD1FAC9DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE22C357-0039-450E-BE40-AAE1C1E6ACBD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10293,7 +10293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23E57F0-C048-4B2E-83A5-F87E35972603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F448924-9179-469D-93C0-E677590160F8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11556,18 +11556,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F06C5BD8-C14E-44A3-A3F6-3F8EB5850BE2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5309E6E-ED71-44FA-B440-BF912065A5EC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65DB97B3-CA97-431D-AEF9-DD37FF231278}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7192C479-034C-4E17-BB27-CE2E382F70E2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{14D2BBB0-EAF8-4179-95D9-799C751C4167}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04F7B280-E13E-486B-87ED-BC97B2A112E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBB81F85-5B0E-4778-889B-02B4DC5FFC14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A05F918-5158-4EAA-A45D-92D2B5228B1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC691CA7-7F48-41CE-84B4-AD7012C1CD36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E5F3811-4F90-439B-BDA7-95DAF35DA2CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EC28528-D44E-4F72-88FE-8738E9D643D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16D25E09-8C9D-4F9D-9F3E-3831FA1C1888}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E45D6BE9-411D-45C5-9BE5-2D5F50DDA8EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57EC5A4C-A323-48E9-9140-AC2AF9D5C835}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5C3E074-3F4D-4994-A2E2-180D79BF868D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C323235F-3C1F-4279-B77A-ADF3254768DC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CA48B81D-773A-419C-80B8-2BD9F2E67B5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C21AD67-2B0B-4580-B9AF-9E1C05467E44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3664059E-27DA-4654-A571-3A1DD98DBE48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FD2A06B-0318-45CA-BC95-47390D7FC581}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08B2B81E-B30A-4A8D-A8FE-443350222D79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03C39597-FF15-4845-B4FF-7A7BC176D4E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D51958F4-F0F0-40E5-BCCC-8692FD897582}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8AEC6FD-32FA-477D-9E52-46B7ABC2962A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11580,7 +11580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D000B2C-52AB-4625-9DB3-AA04FBF9AD28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED1D4A0-8EE6-48D5-9CC9-D6602394C6C3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12843,18 +12843,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4BAB765-0C4C-403E-ADE4-4DD0FBF749D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{993CC970-3248-4DDF-B9D1-5C3E42EFA876}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{704A0708-5B05-4D71-94E7-4D2A10DBFBE0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAE2D22A-66C8-4840-A51E-62E528029CD4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{869F70E6-B14B-431A-A9F4-CEFAA3D0DF46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42FEA88F-26F6-4F55-BA21-45AA66553285}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34BA8853-18F6-444F-A2D8-F5E9529B3445}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1CDFC50-14D0-4C61-8F3B-03B1D3898C51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3716D980-78B4-4BC2-8FBA-1A5565599A16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD73538A-01C7-4219-A905-C405947282AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FAD9DE3-08D8-491A-82DE-5F98EE4A6C63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7A08FA2-3B9B-42E6-AC3F-BA3647342F6D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C548CD82-514A-4C7E-A82A-CDDA5A1F2FC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39E82F33-5382-43C5-8379-B138272A8DC4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE880416-3B69-42AC-A176-501285A6A40E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE961ABD-C996-4014-B640-ED207936E868}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3E5CC7F2-D9A2-4ED7-B098-5EDCAAC5FD31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43534CCA-85F7-4A72-94AC-025D5D2CE203}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BDC0F6D-30CE-4D27-8A5C-BAADDCA74569}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C99E28C9-5252-49CB-B30A-89979BBDE800}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12A4C5A3-2FEA-4889-954E-B1185EA17231}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{460A474B-F872-425A-BEFA-9D44F8D3FCFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CCAC769-FB55-4834-B261-AD643B29E7E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59F242F8-BB8E-467A-B06F-9C68DB2C9802}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12867,7 +12867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BC13C9-2FD6-4E20-AE14-EF6996650846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB2AA6-590A-487C-957A-54A354F123E2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14126,18 +14126,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF1955D0-1400-46DA-972A-8B03651E7108}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A90D1D09-62F6-4ABE-BFEE-A24C629E017F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A2F6D10A-8968-4FA0-A734-00510CB5566B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F6F7EE0-3785-4E43-A02F-35A078DE0F27}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{64F5EBC6-5768-4DEE-B066-87A897899358}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{680455A5-0ACA-476A-9A70-EEEDCFAC7098}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E133060-A59E-4C87-AAAD-FA4FE841D355}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2D61C21-9290-4315-94C1-5F6D52E6CF27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1A89B95-77B4-4ACD-88CD-CD1FDAB8CFB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D32F4FDB-7282-4CF9-AC4C-B20DA5D5E987}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90AA5086-2845-4F80-854C-70E43DB8091D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D4C3E56-CEA7-40FC-9FE8-9A76B26613A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C217D378-F8DF-4566-B419-A9EACEC0F873}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{570B8B8E-8C95-416D-9E88-FE7157A35459}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AE4615D-5E32-42DD-9AB4-5DA663329440}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CA1FE26-C2BD-40B7-A82F-D2D9DB28C34D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8A4ABBDF-60F6-4D67-BFD6-2595E46F3D82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0F25BAD-96F8-45B1-A19F-2556ADAB9F35}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0856CBB8-97ED-4E65-A3C5-7AF4594EE0F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{127D0419-29A9-417A-9219-D202DDE20757}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CC38A4A-F45B-4C39-81BC-C30A6BA58946}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D696987E-3C8A-49EA-A71F-A3AC805D9D87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B206BF8-96A9-411A-AD29-58BC0B6CFE73}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEEF98DB-E591-47B9-AC38-B4BBA396DBCC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14150,7 +14150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645E01D-F6ED-49BF-9C86-E58EEBE2D1E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC05ADD-D1EA-42E6-BCF0-06D43839220E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15409,18 +15409,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01E50372-C073-424E-8902-ECF2E4C0412D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC55B861-AF7C-4D65-84F7-31DEA45F92E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{918ED8B4-B4D7-4A02-B160-287E6C84C814}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A751AD8B-DA31-4B4D-8867-C54E3B4A39E4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D0586C72-346F-4A2A-9F5E-A53F10415B9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44A7E321-C66C-436E-BA29-4B5FAD539F28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE0C9625-46F9-46CA-BAAD-B10EEF1BEE0F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE6881A0-D285-47D4-BB9D-69ECBDDB15AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8205BC1-910C-4EBB-96C6-99C2CE8D5611}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB375494-36D2-4038-B444-803DC133DA51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4BC15DC-A678-49AA-B995-61C4BE5F30DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83A198C2-24F0-4DCE-873A-9849C76A1023}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23DC7282-999A-4DE8-AF23-8296F7A9A53C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD801955-F0F8-4C2C-8D05-90F3F24374D5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DB162591-E02D-4443-89CD-573CB51A2DF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5665F67E-8241-47B4-A9C6-A57EBE8EAB81}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0614B34F-2382-4D05-955B-2394DA31294F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F69293F-0E1D-4973-99D4-C94D1E707A41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE62E0D8-8AD5-4A4C-8975-5B37BC47A718}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3665F0C-45BF-4E00-AEA0-97741866B0A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EF107D9-E3D1-4DB3-939C-2877E6899211}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{932C5C3A-EA8C-48DA-8AFB-E0DEDBE94163}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64BDFAA7-F05B-4878-B618-30572E5F530B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AFB9287-E20C-49D6-ABCE-8729701EEFCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15433,7 +15433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1CB74-9B85-42E3-A8E1-17EF28DB9FA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF923175-1A49-4D1E-8A1F-513C3B47D520}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16688,18 +16688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8BA32CA-60A1-470B-B787-0876DC4F2C9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42A95903-E0B1-43B7-A696-DBE85C69153D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{250AD3E2-5102-46E7-942C-128FFF64AC6D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D7DD52C-9767-404D-9D28-9140EEB0EBC0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AE633E79-1D48-4DAA-AECB-910209E143CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1D0CF8C-D4A7-419B-8614-9C990098C832}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{313EF8C2-5BD9-4553-9922-A5448BD77807}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80D7D72E-73CA-4528-B2C4-2CA507991096}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A59BEFF-73B9-41A1-AB56-261C16AF7554}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48A94D2A-7298-434E-8D97-E061BD260407}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FEAB1F6-47A5-4E97-905B-7D901B1BCB29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A045D3A-E6BB-4DE9-88F4-8D97135B6A88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFAE4CC0-F66F-487C-80E6-B0AE00C4472B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEF052AD-1E87-48F1-B442-5A96ADB0F080}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4D5DFD21-AC9C-4A39-87E4-3598F063032F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29E706A0-F859-4329-8937-A63539D2641D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6090B724-6AE8-4062-ABA4-71931B0E08DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B8B2B21-9A93-4C97-ACD6-A1C410154877}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB282C2C-BA6F-4559-8D3E-56B0D9106456}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A255C82-9346-489D-9205-878CB4B784C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32B8B50E-24D8-48ED-9D87-D0CB4BEA51EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24C9214E-3CEF-4888-8528-87640C94E1A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{560AF6A2-08E4-42CF-AD10-B6F68C3BC5CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1E62398-B6BB-4CA4-A161-ABD5975CA902}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
